--- a/Timetabel.xlsx
+++ b/Timetabel.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/989edacccafacbad/Dokumenter/GitHub/Project-8th/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nvink\OneDrive\Dokumenter\GitHub\Project-8th\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -719,7 +719,7 @@
   <dimension ref="A1:Q40"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1048,19 +1048,19 @@
     </row>
     <row r="10" spans="1:17" s="7" customFormat="1" ht="13.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="14">
-        <v>42772</v>
+        <v>42800</v>
       </c>
       <c r="B10" s="14">
-        <v>42773</v>
+        <v>42801</v>
       </c>
       <c r="C10" s="14">
-        <v>42774</v>
+        <v>42802</v>
       </c>
       <c r="D10" s="14">
-        <v>42775</v>
+        <v>42803</v>
       </c>
       <c r="E10" s="14">
-        <v>42776</v>
+        <v>42804</v>
       </c>
       <c r="F10" s="14"/>
       <c r="G10" s="14">
